--- a/Anna Plots/Ice Mass Data.xlsx
+++ b/Anna Plots/Ice Mass Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\Project data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\STA313 Github\DataVisProject\Anna Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D157DD2-1FD0-416F-80A4-55B4F36AFAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2846E1B-489A-4826-9132-788A463D419A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Time(Year)</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Antarctic mass change (Gigatonnes)</t>
   </si>
 </sst>
 </file>
@@ -249,6 +252,9 @@
                 <c:pt idx="18">
                   <c:v>2020</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -259,61 +265,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>91.61999999999999</c:v>
+                  <c:v>-6.8285714285714283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.167272727272731</c:v>
+                  <c:v>-115.77363636363636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.161666666666662</c:v>
+                  <c:v>-263.09500000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.594166666666659</c:v>
+                  <c:v>-229.1883333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.380000000000003</c:v>
+                  <c:v>-130.84416666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.661666666666662</c:v>
+                  <c:v>-317.20083333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.555</c:v>
+                  <c:v>-587.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.072499999999998</c:v>
+                  <c:v>-563.11166666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.743333333333332</c:v>
+                  <c:v>-841.61916666666673</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.82</c:v>
+                  <c:v>-940.11222222222227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.519090909090899</c:v>
+                  <c:v>-1074.8372727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.198888888888888</c:v>
+                  <c:v>-1285.1311111111111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.766666666666666</c:v>
+                  <c:v>-1495.9399999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.300000000000004</c:v>
+                  <c:v>-1847.6000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.071111111111115</c:v>
+                  <c:v>-1769.5422222222221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60.703999999999994</c:v>
+                  <c:v>-1803.23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.488</c:v>
+                  <c:v>-2147.9679999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.855</c:v>
+                  <c:v>-2269.3016666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.902500000000003</c:v>
+                  <c:v>-2542.3516666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2913.3050000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1384,7 @@
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H20"/>
+      <selection activeCell="G1" sqref="G1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1383,7 +1392,7 @@
     <col min="1" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="55.2" customHeight="1">
@@ -1401,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1421,8 +1430,8 @@
         <v>2002</v>
       </c>
       <c r="H2">
-        <f>AVERAGEIF(A:A, G2, D:D)</f>
-        <v>91.61999999999999</v>
+        <f>AVERAGEIF(A:A, G2, C:C)</f>
+        <v>-6.8285714285714283</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1442,8 +1451,8 @@
         <v>2003</v>
       </c>
       <c r="H3">
-        <f>AVERAGEIF(A:A, G3, D:D)</f>
-        <v>44.167272727272731</v>
+        <f t="shared" ref="H3:H20" si="0">AVERAGEIF(A:A, G3, C:C)</f>
+        <v>-115.77363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1463,8 +1472,8 @@
         <v>2004</v>
       </c>
       <c r="H4">
-        <f>AVERAGEIF(A:A, G4, D:D)</f>
-        <v>37.161666666666662</v>
+        <f t="shared" si="0"/>
+        <v>-263.09500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1484,8 +1493,8 @@
         <v>2005</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H21" si="0">AVERAGEIF(A:A, G5, D:D)</f>
-        <v>34.594166666666659</v>
+        <f t="shared" si="0"/>
+        <v>-229.1883333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1506,7 +1515,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>36.380000000000003</v>
+        <v>-130.84416666666667</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1527,7 +1536,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>38.661666666666662</v>
+        <v>-317.20083333333332</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1548,7 +1557,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>40.555</v>
+        <v>-587.89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1569,7 +1578,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>36.072499999999998</v>
+        <v>-563.11166666666657</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1590,7 +1599,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>35.743333333333332</v>
+        <v>-841.61916666666673</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1611,7 +1620,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>40.82</v>
+        <v>-940.11222222222227</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1632,7 +1641,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>39.519090909090899</v>
+        <v>-1074.8372727272729</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1653,7 +1662,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>38.198888888888888</v>
+        <v>-1285.1311111111111</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1674,7 +1683,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>33.766666666666666</v>
+        <v>-1495.9399999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1695,7 +1704,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>37.300000000000004</v>
+        <v>-1847.6000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1716,7 +1725,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>41.071111111111115</v>
+        <v>-1769.5422222222221</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1737,7 +1746,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>60.703999999999994</v>
+        <v>-1803.23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1758,7 +1767,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>30.488</v>
+        <v>-2147.9679999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1779,7 +1788,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>26.855</v>
+        <v>-2269.3016666666667</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1800,7 +1809,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>31.902500000000003</v>
+        <v>-2542.3516666666669</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1815,6 +1824,13 @@
       </c>
       <c r="D21">
         <v>40.46</v>
+      </c>
+      <c r="G21">
+        <v>2021</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGEIF(A:A, G21, C:C)</f>
+        <v>-2913.3050000000003</v>
       </c>
     </row>
     <row r="22" spans="1:8">

--- a/Anna Plots/Ice Mass Data.xlsx
+++ b/Anna Plots/Ice Mass Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\STA313 Github\DataVisProject\Anna Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\Winter STA313\STA313 Github\DataVisProject\Anna Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2846E1B-489A-4826-9132-788A463D419A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF40AB3-B83D-4367-8D91-3D618B55ABD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11652" yWindow="384" windowWidth="10884" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
